--- a/企画書、設定案、やることリスト、他/アイテムデータ読み込み用(仮).xlsx
+++ b/企画書、設定案、やることリスト、他/アイテムデータ読み込み用(仮).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="135" windowWidth="20475" windowHeight="8070"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -89,9 +89,6 @@
   <si>
     <t>Evol4</t>
   </si>
-  <si>
-    <t>Evol5</t>
-  </si>
 </sst>
 </file>
 
@@ -144,8 +141,36 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R72"/>
+  <dimension ref="A3:Q72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -462,7 +487,7 @@
     <col min="14" max="18" width="5.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -514,11 +539,8 @@
       <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="R3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>0</v>
       </c>
@@ -537,11 +559,8 @@
       <c r="Q4">
         <v>-1</v>
       </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -560,11 +579,8 @@
       <c r="Q5">
         <v>-1</v>
       </c>
-      <c r="R5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -583,11 +599,8 @@
       <c r="Q6">
         <v>-1</v>
       </c>
-      <c r="R6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -606,11 +619,8 @@
       <c r="Q7">
         <v>-1</v>
       </c>
-      <c r="R7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -629,11 +639,8 @@
       <c r="Q8">
         <v>-1</v>
       </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>5</v>
       </c>
@@ -652,11 +659,8 @@
       <c r="Q9">
         <v>-1</v>
       </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>6</v>
       </c>
@@ -675,11 +679,8 @@
       <c r="Q10">
         <v>-1</v>
       </c>
-      <c r="R10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>7</v>
       </c>
@@ -698,11 +699,8 @@
       <c r="Q11">
         <v>-1</v>
       </c>
-      <c r="R11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>8</v>
       </c>
@@ -721,11 +719,8 @@
       <c r="Q12">
         <v>-1</v>
       </c>
-      <c r="R12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>9</v>
       </c>
@@ -744,11 +739,8 @@
       <c r="Q13">
         <v>-1</v>
       </c>
-      <c r="R13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>10</v>
       </c>
@@ -767,11 +759,8 @@
       <c r="Q14">
         <v>-1</v>
       </c>
-      <c r="R14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>11</v>
       </c>
@@ -790,11 +779,8 @@
       <c r="Q15">
         <v>-1</v>
       </c>
-      <c r="R15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>12</v>
       </c>
@@ -813,11 +799,8 @@
       <c r="Q16">
         <v>-1</v>
       </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>13</v>
       </c>
@@ -836,11 +819,8 @@
       <c r="Q17">
         <v>-1</v>
       </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>14</v>
       </c>
@@ -859,11 +839,8 @@
       <c r="Q18">
         <v>-1</v>
       </c>
-      <c r="R18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>15</v>
       </c>
@@ -882,11 +859,8 @@
       <c r="Q19">
         <v>-1</v>
       </c>
-      <c r="R19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>16</v>
       </c>
@@ -905,11 +879,8 @@
       <c r="Q20">
         <v>-1</v>
       </c>
-      <c r="R20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>17</v>
       </c>
@@ -928,11 +899,8 @@
       <c r="Q21">
         <v>-1</v>
       </c>
-      <c r="R21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>18</v>
       </c>
@@ -951,11 +919,8 @@
       <c r="Q22">
         <v>-1</v>
       </c>
-      <c r="R22">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>19</v>
       </c>
@@ -974,11 +939,8 @@
       <c r="Q23">
         <v>-1</v>
       </c>
-      <c r="R23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>20</v>
       </c>
@@ -997,11 +959,8 @@
       <c r="Q24">
         <v>-1</v>
       </c>
-      <c r="R24">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>21</v>
       </c>
@@ -1020,11 +979,8 @@
       <c r="Q25">
         <v>-1</v>
       </c>
-      <c r="R25">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>22</v>
       </c>
@@ -1043,11 +999,8 @@
       <c r="Q26">
         <v>-1</v>
       </c>
-      <c r="R26">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>23</v>
       </c>
@@ -1066,11 +1019,8 @@
       <c r="Q27">
         <v>-1</v>
       </c>
-      <c r="R27">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>24</v>
       </c>
@@ -1089,11 +1039,8 @@
       <c r="Q28">
         <v>-1</v>
       </c>
-      <c r="R28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>25</v>
       </c>
@@ -1112,11 +1059,8 @@
       <c r="Q29">
         <v>-1</v>
       </c>
-      <c r="R29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>26</v>
       </c>
@@ -1135,11 +1079,8 @@
       <c r="Q30">
         <v>-1</v>
       </c>
-      <c r="R30">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>27</v>
       </c>
@@ -1158,11 +1099,8 @@
       <c r="Q31">
         <v>-1</v>
       </c>
-      <c r="R31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>28</v>
       </c>
@@ -1181,11 +1119,8 @@
       <c r="Q32">
         <v>-1</v>
       </c>
-      <c r="R32">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>29</v>
       </c>
@@ -1204,11 +1139,8 @@
       <c r="Q33">
         <v>-1</v>
       </c>
-      <c r="R33">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>30</v>
       </c>
@@ -1227,11 +1159,8 @@
       <c r="Q34">
         <v>-1</v>
       </c>
-      <c r="R34">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>31</v>
       </c>
@@ -1250,11 +1179,8 @@
       <c r="Q35">
         <v>-1</v>
       </c>
-      <c r="R35">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>32</v>
       </c>
@@ -1273,11 +1199,8 @@
       <c r="Q36">
         <v>-1</v>
       </c>
-      <c r="R36">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>33</v>
       </c>
@@ -1296,11 +1219,8 @@
       <c r="Q37">
         <v>-1</v>
       </c>
-      <c r="R37">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>34</v>
       </c>
@@ -1319,11 +1239,8 @@
       <c r="Q38">
         <v>-1</v>
       </c>
-      <c r="R38">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>35</v>
       </c>
@@ -1342,11 +1259,8 @@
       <c r="Q39">
         <v>-1</v>
       </c>
-      <c r="R39">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>36</v>
       </c>
@@ -1365,11 +1279,8 @@
       <c r="Q40">
         <v>-1</v>
       </c>
-      <c r="R40">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>37</v>
       </c>
@@ -1388,11 +1299,8 @@
       <c r="Q41">
         <v>-1</v>
       </c>
-      <c r="R41">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>38</v>
       </c>
@@ -1411,11 +1319,8 @@
       <c r="Q42">
         <v>-1</v>
       </c>
-      <c r="R42">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>39</v>
       </c>
@@ -1434,11 +1339,8 @@
       <c r="Q43">
         <v>53</v>
       </c>
-      <c r="R43">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>40</v>
       </c>
@@ -1457,11 +1359,8 @@
       <c r="Q44">
         <v>-1</v>
       </c>
-      <c r="R44">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>41</v>
       </c>
@@ -1480,11 +1379,8 @@
       <c r="Q45">
         <v>-1</v>
       </c>
-      <c r="R45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>42</v>
       </c>
@@ -1503,11 +1399,8 @@
       <c r="Q46">
         <v>-1</v>
       </c>
-      <c r="R46">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>43</v>
       </c>
@@ -1526,11 +1419,8 @@
       <c r="Q47">
         <v>-1</v>
       </c>
-      <c r="R47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>44</v>
       </c>
@@ -1549,11 +1439,8 @@
       <c r="Q48">
         <v>-1</v>
       </c>
-      <c r="R48">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>45</v>
       </c>
@@ -1572,11 +1459,8 @@
       <c r="Q49">
         <v>-1</v>
       </c>
-      <c r="R49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>46</v>
       </c>
@@ -1595,11 +1479,8 @@
       <c r="Q50">
         <v>-1</v>
       </c>
-      <c r="R50">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>47</v>
       </c>
@@ -1618,11 +1499,8 @@
       <c r="Q51">
         <v>-1</v>
       </c>
-      <c r="R51">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>48</v>
       </c>
@@ -1641,11 +1519,8 @@
       <c r="Q52">
         <v>-1</v>
       </c>
-      <c r="R52">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>49</v>
       </c>
@@ -1664,11 +1539,8 @@
       <c r="Q53">
         <v>-1</v>
       </c>
-      <c r="R53">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>50</v>
       </c>
@@ -1687,11 +1559,8 @@
       <c r="Q54">
         <v>-1</v>
       </c>
-      <c r="R54">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>51</v>
       </c>
@@ -1710,11 +1579,8 @@
       <c r="Q55">
         <v>-1</v>
       </c>
-      <c r="R55">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>52</v>
       </c>
@@ -1733,11 +1599,8 @@
       <c r="Q56">
         <v>-1</v>
       </c>
-      <c r="R56">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>53</v>
       </c>
@@ -1756,11 +1619,8 @@
       <c r="Q57">
         <v>-1</v>
       </c>
-      <c r="R57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>54</v>
       </c>
@@ -1779,11 +1639,8 @@
       <c r="Q58">
         <v>-1</v>
       </c>
-      <c r="R58">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>55</v>
       </c>
@@ -1802,11 +1659,8 @@
       <c r="Q59">
         <v>-1</v>
       </c>
-      <c r="R59">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>56</v>
       </c>
@@ -1825,11 +1679,8 @@
       <c r="Q60">
         <v>-1</v>
       </c>
-      <c r="R60">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B61">
         <v>57</v>
       </c>
@@ -1848,11 +1699,8 @@
       <c r="Q61">
         <v>-1</v>
       </c>
-      <c r="R61">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B62">
         <v>58</v>
       </c>
@@ -1871,11 +1719,8 @@
       <c r="Q62">
         <v>-1</v>
       </c>
-      <c r="R62">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B63">
         <v>59</v>
       </c>
@@ -1894,11 +1739,8 @@
       <c r="Q63">
         <v>-1</v>
       </c>
-      <c r="R63">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B64">
         <v>60</v>
       </c>
@@ -1917,11 +1759,8 @@
       <c r="Q64">
         <v>-1</v>
       </c>
-      <c r="R64">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B65">
         <v>61</v>
       </c>
@@ -1940,11 +1779,8 @@
       <c r="Q65">
         <v>-1</v>
       </c>
-      <c r="R65">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B66">
         <v>62</v>
       </c>
@@ -1963,11 +1799,8 @@
       <c r="Q66">
         <v>-1</v>
       </c>
-      <c r="R66">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B67">
         <v>63</v>
       </c>
@@ -1986,11 +1819,8 @@
       <c r="Q67">
         <v>-1</v>
       </c>
-      <c r="R67">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B68">
         <v>64</v>
       </c>
@@ -2009,11 +1839,8 @@
       <c r="Q68">
         <v>-1</v>
       </c>
-      <c r="R68">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B69">
         <v>65</v>
       </c>
@@ -2032,11 +1859,8 @@
       <c r="Q69">
         <v>-1</v>
       </c>
-      <c r="R69">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B70">
         <v>66</v>
       </c>
@@ -2055,11 +1879,8 @@
       <c r="Q70">
         <v>-1</v>
       </c>
-      <c r="R70">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B71">
         <v>67</v>
       </c>
@@ -2078,11 +1899,8 @@
       <c r="Q71">
         <v>-1</v>
       </c>
-      <c r="R71">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B72">
         <v>68</v>
       </c>
@@ -2099,9 +1917,6 @@
         <v>-1</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
-      </c>
-      <c r="R72">
         <v>-1</v>
       </c>
     </row>
